--- a/CAD_Project.xlsx
+++ b/CAD_Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLIC\Documents\Cours GaTech\CAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLIC\PycharmProjects\Support_Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3CB1973-2038-483A-948D-E6E5D1A64C66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D440EC9F-FA8A-4BC2-A5D3-C1ABC7AB7425}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7920" yWindow="8385" windowWidth="17160" windowHeight="10530" xr2:uid="{9581F312-4F71-4620-A9E7-458B05964B48}"/>
+    <workbookView xWindow="4185" yWindow="3150" windowWidth="17160" windowHeight="10530" xr2:uid="{9581F312-4F71-4620-A9E7-458B05964B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Functions</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Deadline - At least, one optimization</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -252,13 +255,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +579,7 @@
   <dimension ref="B6:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,10 +600,10 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -660,10 +663,10 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -671,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>42095</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -688,7 +691,7 @@
       <c r="D13" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>44652</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -705,7 +708,7 @@
       <c r="D14" s="5">
         <v>3</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>47209</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -734,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>9</v>
       </c>
@@ -744,8 +747,11 @@
       <c r="D17" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>10</v>
       </c>
@@ -756,14 +762,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>14</v>
@@ -772,7 +778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -781,7 +787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="6" t="s">
         <v>18</v>
@@ -790,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="6" t="s">
         <v>19</v>
@@ -799,7 +805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="6" t="s">
         <v>20</v>
@@ -808,7 +814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="6" t="s">
         <v>21</v>
@@ -817,7 +823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="6" t="s">
         <v>22</v>
@@ -826,7 +832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="6" t="s">
         <v>23</v>
@@ -835,7 +841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="6" t="s">
         <v>24</v>
@@ -844,7 +850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="6" t="s">
         <v>33</v>

--- a/CAD_Project.xlsx
+++ b/CAD_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLIC\PycharmProjects\Support_Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D440EC9F-FA8A-4BC2-A5D3-C1ABC7AB7425}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FF0B2-46A3-4A2B-8EFB-0E6FEE1780A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4185" yWindow="3150" windowWidth="17160" windowHeight="10530" xr2:uid="{9581F312-4F71-4620-A9E7-458B05964B48}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Functions</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Bbonjour à tous</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <dimension ref="B6:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +763,9 @@
       </c>
       <c r="D18" s="5">
         <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">

--- a/CAD_Project.xlsx
+++ b/CAD_Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLIC\Documents\Cours GaTech\CAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLIC\PycharmProjects\Support_Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3CB1973-2038-483A-948D-E6E5D1A64C66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FF0B2-46A3-4A2B-8EFB-0E6FEE1780A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7920" yWindow="8385" windowWidth="17160" windowHeight="10530" xr2:uid="{9581F312-4F71-4620-A9E7-458B05964B48}"/>
+    <workbookView xWindow="4185" yWindow="3150" windowWidth="17160" windowHeight="10530" xr2:uid="{9581F312-4F71-4620-A9E7-458B05964B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Functions</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Deadline - At least, one optimization</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Bbonjour à tous</t>
   </si>
 </sst>
 </file>
@@ -252,13 +258,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +582,7 @@
   <dimension ref="B6:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,10 +603,10 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -660,10 +666,10 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -671,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>42095</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -688,7 +694,7 @@
       <c r="D13" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>44652</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -705,7 +711,7 @@
       <c r="D14" s="5">
         <v>3</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>47209</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -734,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>9</v>
       </c>
@@ -744,8 +750,11 @@
       <c r="D17" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>10</v>
       </c>
@@ -755,15 +764,18 @@
       <c r="D18" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>14</v>
@@ -772,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -781,7 +793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="6" t="s">
         <v>18</v>
@@ -790,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="6" t="s">
         <v>19</v>
@@ -799,7 +811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="6" t="s">
         <v>20</v>
@@ -808,7 +820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="6" t="s">
         <v>21</v>
@@ -817,7 +829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="6" t="s">
         <v>22</v>
@@ -826,7 +838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="6" t="s">
         <v>23</v>
@@ -835,7 +847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="6" t="s">
         <v>24</v>
@@ -844,7 +856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="6" t="s">
         <v>33</v>

--- a/CAD_Project.xlsx
+++ b/CAD_Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLIC\PycharmProjects\Support_Generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\PycharmProjects\Support_Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FF0B2-46A3-4A2B-8EFB-0E6FEE1780A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013E42F-1660-44DD-8E8F-ECA13AF4EA52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="3150" windowWidth="17160" windowHeight="10530" xr2:uid="{9581F312-4F71-4620-A9E7-458B05964B48}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9581F312-4F71-4620-A9E7-458B05964B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -582,18 +582,18 @@
   <dimension ref="B6:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="82.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
@@ -608,7 +608,7 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -619,7 +619,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -634,7 +634,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -671,7 +671,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -684,7 +684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>5</v>
       </c>
@@ -701,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>6</v>
       </c>
@@ -718,7 +718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>7</v>
       </c>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>8</v>
       </c>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>9</v>
       </c>
@@ -754,7 +754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>10</v>
       </c>
@@ -768,14 +768,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>14</v>
@@ -784,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -793,7 +793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="6" t="s">
         <v>18</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="6" t="s">
         <v>19</v>
@@ -811,7 +811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="6" t="s">
         <v>20</v>
@@ -820,7 +820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="6" t="s">
         <v>21</v>
@@ -829,7 +829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="6" t="s">
         <v>23</v>
@@ -847,7 +847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="6" t="s">
         <v>24</v>
@@ -856,7 +856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="6" t="s">
         <v>33</v>
@@ -881,7 +881,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
